--- a/Test/Table1.xlsx
+++ b/Test/Table1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>I, A</t>
   </si>
@@ -25,6 +25,12 @@
   </si>
   <si>
     <t>R, Ом</t>
+  </si>
+  <si>
+    <t>ЭДС, В</t>
+  </si>
+  <si>
+    <t>r, Ом</t>
   </si>
 </sst>
 </file>
@@ -364,15 +370,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F3"/>
+  <dimension ref="C2:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -383,7 +389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3">
         <f>E3/F3</f>
         <v>2</v>
@@ -393,6 +399,35 @@
       </c>
       <c r="F3">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>E6/(F6+G6)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E6">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Test/Table1.xlsx
+++ b/Test/Table1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>I, A</t>
   </si>
@@ -31,13 +31,22 @@
   </si>
   <si>
     <t>r, Ом</t>
+  </si>
+  <si>
+    <t>ρ, кг/м3</t>
+  </si>
+  <si>
+    <t>М, кг</t>
+  </si>
+  <si>
+    <t>V, м3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,6 +54,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -67,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -370,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:G6"/>
+  <dimension ref="C2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,8 +447,32 @@
         <v>6</v>
       </c>
     </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>E10/F10</f>
+        <v>2300</v>
+      </c>
+      <c r="E10">
+        <v>4600</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Test/Table1.xlsx
+++ b/Test/Table1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>I, A</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>V, м3</t>
+  </si>
+  <si>
+    <t>v, м/с</t>
+  </si>
+  <si>
+    <t>S, м</t>
+  </si>
+  <si>
+    <t>t, с</t>
   </si>
 </sst>
 </file>
@@ -387,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:G10"/>
+  <dimension ref="C2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,6 +477,29 @@
       </c>
       <c r="F10">
         <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>E14/G14</f>
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
